--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nali/work/ximalaya/autotest/Newuiautotest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Newuiautotest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009795AD-EBC4-8344-AA34-5C5CAA883159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="20460" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -318,6 +319,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -339,7 +343,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -633,12 +643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +665,7 @@
     <col min="11" max="16384" width="14.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -687,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -701,7 +711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -715,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -723,7 +733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -737,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
@@ -745,7 +755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>42</v>
       </c>
@@ -759,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
@@ -767,7 +777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
@@ -781,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
@@ -789,7 +799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
@@ -803,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
         <v>52</v>
       </c>
@@ -811,7 +821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
@@ -825,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
@@ -836,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
@@ -853,7 +863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>55</v>
@@ -869,7 +879,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -879,7 +889,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>37</v>
@@ -889,7 +899,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>18</v>
@@ -902,7 +912,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="C21" s="4" t="s">
         <v>21</v>
@@ -918,7 +928,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>22</v>
@@ -934,7 +944,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="C23" s="4" t="s">
         <v>29</v>
@@ -953,7 +963,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>9</v>
       </c>
